--- a/MMS/Test Cases/Monitor app/Performance tests-8may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-8may2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
@@ -14,6 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$2:$R$38</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="320">
   <si>
     <t>time for upload</t>
   </si>
@@ -1349,8 +1350,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,7 +1543,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1627,12 +1628,15 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1740,6 +1744,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1774,6 +1779,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1949,7 +1955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1957,7 +1963,7 @@
       <selection pane="bottomLeft" activeCell="E11" sqref="E11:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.140625" customWidth="1"/>
@@ -1981,7 +1987,7 @@
     <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="5" customFormat="1" ht="90">
+    <row r="1" spans="1:22" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
         <v>47</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="75">
+    <row r="2" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -2078,7 +2084,7 @@
       </c>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
         <v>3</v>
       </c>
@@ -2117,7 +2123,7 @@
       </c>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" spans="1:22" ht="75">
+    <row r="4" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="75">
+    <row r="5" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>2</v>
       </c>
@@ -2194,7 +2200,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="30">
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>1</v>
       </c>
@@ -2244,7 +2250,7 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="60">
+    <row r="7" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -2295,7 +2301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="60">
+    <row r="9" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -2362,7 +2368,7 @@
       </c>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -2414,7 +2420,7 @@
       </c>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:22" ht="60">
+    <row r="11" spans="1:22" ht="60" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -2459,7 +2465,7 @@
       </c>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:22" ht="30">
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>6</v>
       </c>
@@ -2505,7 +2511,7 @@
       </c>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>7</v>
       </c>
@@ -2536,7 +2542,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="75">
+    <row r="14" spans="1:22" ht="75" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>8</v>
       </c>
@@ -2575,7 +2581,7 @@
       </c>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:22" ht="120">
+    <row r="15" spans="1:22" ht="120" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>9</v>
       </c>
@@ -2602,7 +2608,7 @@
       <c r="R15" s="3"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2616,7 +2622,7 @@
       <c r="R16" s="3"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="3:21">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2631,7 +2637,7 @@
       <c r="R17" s="3"/>
       <c r="U17" s="5"/>
     </row>
-    <row r="18" spans="3:21">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2646,7 +2652,7 @@
       <c r="R18" s="3"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="19" spans="3:21">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2661,499 +2667,499 @@
       <c r="R19" s="3"/>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="3:21">
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="R20" s="3"/>
       <c r="U20" s="5"/>
     </row>
-    <row r="21" spans="3:21">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="R21" s="3"/>
       <c r="U21" s="5"/>
     </row>
-    <row r="22" spans="3:21">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="R22" s="3"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="3:21">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="R23" s="3"/>
       <c r="U23" s="5"/>
     </row>
-    <row r="24" spans="3:21">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="R24" s="3"/>
       <c r="U24" s="5"/>
     </row>
-    <row r="25" spans="3:21">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="R25" s="3"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="26" spans="3:21">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="R26" s="3"/>
       <c r="U26" s="5"/>
     </row>
-    <row r="27" spans="3:21">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="R27" s="3"/>
       <c r="U27" s="5"/>
     </row>
-    <row r="28" spans="3:21">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="R28" s="3"/>
       <c r="U28" s="5"/>
     </row>
-    <row r="29" spans="3:21">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="R29" s="3"/>
       <c r="U29" s="5"/>
     </row>
-    <row r="30" spans="3:21">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="R30" s="3"/>
       <c r="U30" s="5"/>
     </row>
-    <row r="31" spans="3:21">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="R31" s="3"/>
       <c r="U31" s="5"/>
     </row>
-    <row r="32" spans="3:21">
+    <row r="32" spans="3:21" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="R32" s="3"/>
       <c r="U32" s="5"/>
     </row>
-    <row r="33" spans="4:21">
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="R33" s="3"/>
       <c r="U33" s="5"/>
     </row>
-    <row r="34" spans="4:21">
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="R34" s="3"/>
       <c r="U34" s="5"/>
     </row>
-    <row r="35" spans="4:21">
+    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="R35" s="3"/>
       <c r="U35" s="5"/>
     </row>
-    <row r="36" spans="4:21">
+    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="R36" s="3"/>
       <c r="U36" s="5"/>
     </row>
-    <row r="37" spans="4:21">
+    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="R37" s="3"/>
       <c r="U37" s="5"/>
     </row>
-    <row r="38" spans="4:21">
+    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="R38" s="3"/>
       <c r="U38" s="5"/>
     </row>
-    <row r="39" spans="4:21">
+    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
       <c r="F39"/>
       <c r="G39"/>
       <c r="R39" s="3"/>
       <c r="U39" s="5"/>
     </row>
-    <row r="40" spans="4:21">
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
       <c r="F40"/>
       <c r="G40"/>
       <c r="R40" s="3"/>
       <c r="U40" s="5"/>
     </row>
-    <row r="41" spans="4:21">
+    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
       <c r="F41"/>
       <c r="G41"/>
       <c r="R41" s="3"/>
       <c r="U41" s="5"/>
     </row>
-    <row r="42" spans="4:21">
+    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D42" s="3"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="R42" s="3"/>
       <c r="U42" s="5"/>
     </row>
-    <row r="43" spans="4:21">
+    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="R43" s="3"/>
       <c r="U43" s="5"/>
     </row>
-    <row r="44" spans="4:21">
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
       <c r="F44"/>
       <c r="G44"/>
       <c r="R44" s="3"/>
       <c r="U44" s="5"/>
     </row>
-    <row r="45" spans="4:21">
+    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="3"/>
       <c r="F45"/>
       <c r="G45"/>
       <c r="R45" s="3"/>
       <c r="U45" s="5"/>
     </row>
-    <row r="46" spans="4:21">
+    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="R46" s="3"/>
       <c r="U46" s="5"/>
     </row>
-    <row r="47" spans="4:21">
+    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
       <c r="F47"/>
       <c r="G47"/>
       <c r="R47" s="3"/>
       <c r="U47" s="5"/>
     </row>
-    <row r="48" spans="4:21">
+    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="R48" s="3"/>
       <c r="U48" s="5"/>
     </row>
-    <row r="49" spans="4:21">
+    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D49" s="3"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="U49" s="5"/>
     </row>
-    <row r="50" spans="4:21">
+    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D50" s="3"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="U50" s="5"/>
     </row>
-    <row r="51" spans="4:21">
+    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D51" s="3"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="U51" s="5"/>
     </row>
-    <row r="52" spans="4:21">
+    <row r="52" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D52" s="3"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="U52" s="5"/>
     </row>
-    <row r="53" spans="4:21">
+    <row r="53" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D53" s="3"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="U53" s="5"/>
     </row>
-    <row r="54" spans="4:21">
+    <row r="54" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D54" s="3"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="U54" s="5"/>
     </row>
-    <row r="55" spans="4:21">
+    <row r="55" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F55"/>
       <c r="G55"/>
       <c r="U55" s="5"/>
     </row>
-    <row r="56" spans="4:21">
+    <row r="56" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F56"/>
       <c r="G56"/>
       <c r="U56" s="5"/>
     </row>
-    <row r="57" spans="4:21">
+    <row r="57" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F57"/>
       <c r="G57"/>
       <c r="U57" s="5"/>
     </row>
-    <row r="58" spans="4:21">
+    <row r="58" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F58"/>
       <c r="G58"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="4:21">
+    <row r="59" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F59"/>
       <c r="G59"/>
       <c r="U59" s="5"/>
     </row>
-    <row r="60" spans="4:21">
+    <row r="60" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F60"/>
       <c r="G60"/>
       <c r="U60" s="5"/>
     </row>
-    <row r="61" spans="4:21">
+    <row r="61" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F61"/>
       <c r="G61"/>
       <c r="U61" s="5"/>
     </row>
-    <row r="62" spans="4:21">
+    <row r="62" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F62"/>
       <c r="G62"/>
       <c r="U62" s="5"/>
     </row>
-    <row r="63" spans="4:21">
+    <row r="63" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F63"/>
       <c r="G63"/>
       <c r="U63" s="5"/>
     </row>
-    <row r="64" spans="4:21">
+    <row r="64" spans="4:21" x14ac:dyDescent="0.25">
       <c r="F64"/>
       <c r="G64"/>
     </row>
-    <row r="65" spans="6:7">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F65"/>
       <c r="G65"/>
     </row>
-    <row r="66" spans="6:7">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F66"/>
       <c r="G66"/>
     </row>
-    <row r="67" spans="6:7">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F67"/>
       <c r="G67"/>
     </row>
-    <row r="68" spans="6:7">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F68"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="6:7">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="6:7">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F70"/>
       <c r="G70"/>
     </row>
-    <row r="71" spans="6:7">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F71"/>
       <c r="G71"/>
     </row>
-    <row r="72" spans="6:7">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F72"/>
       <c r="G72"/>
     </row>
-    <row r="73" spans="6:7">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F73"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="6:7">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F74"/>
       <c r="G74"/>
     </row>
-    <row r="75" spans="6:7">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F75"/>
       <c r="G75"/>
     </row>
-    <row r="76" spans="6:7">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F76"/>
       <c r="G76"/>
     </row>
-    <row r="77" spans="6:7">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="6:7">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F78"/>
       <c r="G78"/>
     </row>
-    <row r="79" spans="6:7">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F79"/>
       <c r="G79"/>
     </row>
-    <row r="80" spans="6:7">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="6:7">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F81"/>
       <c r="G81"/>
     </row>
-    <row r="82" spans="6:7">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F82"/>
       <c r="G82"/>
     </row>
-    <row r="83" spans="6:7">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F83"/>
       <c r="G83"/>
     </row>
-    <row r="84" spans="6:7">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F84"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="6:7">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F85"/>
       <c r="G85"/>
     </row>
-    <row r="86" spans="6:7">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F86"/>
       <c r="G86"/>
     </row>
-    <row r="87" spans="6:7">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F87"/>
       <c r="G87"/>
     </row>
-    <row r="88" spans="6:7">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F88"/>
       <c r="G88"/>
     </row>
-    <row r="89" spans="6:7">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="6:7">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="6:7">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="6:7">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="6:7">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="6:7">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="6:7">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="6:7">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F96"/>
       <c r="G96"/>
     </row>
-    <row r="97" spans="6:7">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F97"/>
       <c r="G97"/>
     </row>
-    <row r="98" spans="6:7">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F98"/>
       <c r="G98"/>
     </row>
-    <row r="99" spans="6:7">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F99"/>
       <c r="G99"/>
     </row>
-    <row r="100" spans="6:7">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F100"/>
       <c r="G100"/>
     </row>
-    <row r="101" spans="6:7">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F101"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="6:7">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="6:7">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F103"/>
       <c r="G103"/>
     </row>
-    <row r="104" spans="6:7">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F104"/>
       <c r="G104"/>
     </row>
-    <row r="105" spans="6:7">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F105"/>
       <c r="G105"/>
     </row>
-    <row r="106" spans="6:7">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F106"/>
       <c r="G106"/>
     </row>
-    <row r="107" spans="6:7">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F107"/>
       <c r="G107"/>
     </row>
-    <row r="108" spans="6:7">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F108"/>
       <c r="G108"/>
     </row>
-    <row r="109" spans="6:7">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F109"/>
       <c r="G109"/>
     </row>
-    <row r="110" spans="6:7">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F110"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="6:7">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F111"/>
       <c r="G111"/>
     </row>
-    <row r="112" spans="6:7">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F112"/>
       <c r="G112"/>
     </row>
-    <row r="113" spans="6:7">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="114" spans="6:7">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F114"/>
       <c r="G114"/>
     </row>
-    <row r="115" spans="6:7">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F115"/>
       <c r="G115"/>
     </row>
-    <row r="116" spans="6:7">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F116"/>
       <c r="G116"/>
     </row>
@@ -3193,20 +3199,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:D6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="48.5703125" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" ht="345">
+    <row r="3" spans="3:4" ht="345" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3214,7 +3220,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="240">
+    <row r="4" spans="3:4" ht="240" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
@@ -3222,11 +3228,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="3:4" ht="330">
+    <row r="6" spans="3:4" ht="330" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>27</v>
       </c>
@@ -3238,7 +3244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3246,7 +3252,7 @@
       <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" style="4" customWidth="1"/>
@@ -3260,7 +3266,7 @@
     <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1">
+    <row r="2" spans="1:9" s="23" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>119</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1">
+    <row r="3" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -3303,7 +3309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="38" customFormat="1" ht="75">
+    <row r="4" spans="1:9" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>2</v>
       </c>
@@ -3320,7 +3326,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="60">
+    <row r="5" spans="1:9" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -3338,7 +3344,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="6" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -3353,7 +3359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -3368,7 +3374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="30">
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -3385,7 +3391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -3402,7 +3408,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60">
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -3417,7 +3423,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -3434,7 +3440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="45">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -3451,7 +3457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75">
+    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -3468,7 +3474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75">
+    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -3485,7 +3491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="90">
+    <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90">
+    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="90">
+    <row r="17" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="150">
+    <row r="18" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -3557,7 +3563,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="37"/>
       <c r="C19" s="2" t="s">
@@ -3571,7 +3577,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="90">
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>17</v>
       </c>
@@ -3588,7 +3594,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="105">
+    <row r="21" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>18</v>
       </c>
@@ -3606,7 +3612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="90">
+    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="C22" s="17" t="s">
         <v>283</v>
       </c>
@@ -3623,7 +3629,7 @@
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="60">
+    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="90">
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="C24" s="17" t="s">
         <v>281</v>
@@ -3658,7 +3664,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="87" customHeight="1">
+    <row r="25" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>20</v>
       </c>
@@ -3675,7 +3681,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="87" customHeight="1">
+    <row r="26" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="C26" s="2" t="s">
         <v>286</v>
@@ -3690,7 +3696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="60">
+    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>21</v>
       </c>
@@ -3710,7 +3716,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="60">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>22</v>
       </c>
@@ -3728,7 +3734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60">
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="C29" s="17" t="s">
         <v>289</v>
@@ -3744,7 +3750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75">
+    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>23</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="90">
+    <row r="31" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
         <v>24</v>
       </c>
@@ -3780,7 +3786,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="90">
+    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="C32" s="17" t="s">
         <v>293</v>
@@ -3797,7 +3803,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:7" ht="75">
+    <row r="33" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>25</v>
       </c>
@@ -3814,7 +3820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="120">
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
         <v>26</v>
       </c>
@@ -3831,7 +3837,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="135">
+    <row r="35" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>27</v>
       </c>
@@ -3848,7 +3854,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="120">
+    <row r="36" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
         <v>28</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
         <v>29</v>
       </c>
@@ -3882,7 +3888,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="180">
+    <row r="38" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="C38" s="2" t="s">
         <v>232</v>
@@ -3897,7 +3903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="105">
+    <row r="39" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="C39" s="2"/>
       <c r="D39" s="31" t="s">
@@ -3910,7 +3916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="120">
+    <row r="40" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="C40" s="2" t="s">
         <v>235</v>
@@ -3925,7 +3931,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30">
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="C41" s="2"/>
       <c r="D41" s="31" t="s">
@@ -3938,7 +3944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="180">
+    <row r="42" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A42" s="16"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
@@ -3951,7 +3957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>30</v>
       </c>
@@ -3962,7 +3968,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="75">
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>31</v>
       </c>
@@ -3979,7 +3985,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="75">
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
         <v>32</v>
       </c>
@@ -3996,7 +4002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="75">
+    <row r="46" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
         <v>33</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="75">
+    <row r="47" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
         <v>34</v>
       </c>
@@ -4030,7 +4036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90">
+    <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>35</v>
       </c>
@@ -4048,7 +4054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75">
+    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>36</v>
       </c>
@@ -4062,7 +4068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="60">
+    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
         <v>37</v>
       </c>
@@ -4079,7 +4085,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75">
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>38</v>
       </c>
@@ -4096,7 +4102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="60">
+    <row r="52" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
         <v>39</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="75">
+    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>40</v>
       </c>
@@ -4130,7 +4136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
         <v>41</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="60">
+    <row r="55" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
         <v>42</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="60">
+    <row r="56" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
         <v>43</v>
       </c>
@@ -4176,7 +4182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75">
+    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
         <v>44</v>
       </c>
@@ -4193,7 +4199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="45">
+    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <v>45</v>
       </c>
@@ -4210,7 +4216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75">
+    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
         <v>46</v>
       </c>
@@ -4227,7 +4233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
         <v>47</v>
       </c>
@@ -4239,7 +4245,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="60">
+    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
         <v>48</v>
       </c>
@@ -4259,7 +4265,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="75">
+    <row r="62" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
         <v>49</v>
       </c>
@@ -4279,7 +4285,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="60">
+    <row r="63" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="16">
         <v>50</v>
       </c>
@@ -4298,7 +4304,7 @@
       </c>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="1:9" ht="45">
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="16">
         <v>51</v>
       </c>
@@ -4316,7 +4322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30">
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="16">
         <v>52</v>
       </c>
@@ -4335,7 +4341,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="16">
         <v>53</v>
       </c>
@@ -4353,7 +4359,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="16">
         <v>54</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="16">
         <v>55</v>
       </c>
@@ -4383,7 +4389,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="16">
         <v>56</v>
       </c>
@@ -4391,7 +4397,7 @@
       <c r="E69" s="2"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="16">
         <v>57</v>
       </c>
@@ -4400,7 +4406,7 @@
       </c>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:8" ht="105">
+    <row r="71" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="16">
         <v>58</v>
       </c>
@@ -4417,7 +4423,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="60">
+    <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="16">
         <v>59</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30">
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="16">
         <v>60</v>
       </c>
@@ -4449,7 +4455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="60">
+    <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="16">
         <v>61</v>
       </c>
@@ -4462,7 +4468,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="16">
         <v>62</v>
       </c>
@@ -4475,7 +4481,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="16">
         <v>63</v>
       </c>
@@ -4487,7 +4493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60">
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="16">
         <v>64</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="120">
+    <row r="78" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A78" s="16">
         <v>65</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <v>66</v>
       </c>
@@ -4528,7 +4534,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:8" ht="60">
+    <row r="80" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="16">
         <v>67</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="60">
+    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="16">
         <v>68</v>
       </c>
@@ -4555,7 +4561,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="16">
         <v>69</v>
       </c>
@@ -4564,7 +4570,7 @@
       </c>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:8" ht="45">
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="16">
         <v>70</v>
       </c>
@@ -4578,7 +4584,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="16">
         <v>71</v>
       </c>
@@ -4590,7 +4596,7 @@
       </c>
       <c r="H84" s="2"/>
     </row>
-    <row r="85" spans="1:8" ht="30">
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="16">
         <v>72</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="60">
+    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="16">
         <v>73</v>
       </c>
@@ -4615,7 +4621,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="60">
+    <row r="87" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="16">
         <v>74</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="16">
         <v>75</v>
       </c>
@@ -4641,7 +4647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30">
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="16">
         <v>76</v>
       </c>
@@ -4652,7 +4658,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="45">
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="16">
         <v>77</v>
       </c>
@@ -4664,7 +4670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="45">
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="16">
         <v>78</v>
       </c>
@@ -4677,7 +4683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="16">
         <v>79</v>
       </c>
@@ -4690,7 +4696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="60">
+    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="16">
         <v>80</v>
       </c>
@@ -4704,7 +4710,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="45">
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="16">
         <v>81</v>
       </c>
@@ -4718,7 +4724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="60">
+    <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="16">
         <v>82</v>
       </c>
@@ -4729,7 +4735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="60">
+    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="16">
         <v>83</v>
       </c>
@@ -4740,7 +4746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="60">
+    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="16"/>
       <c r="D97" s="31" t="s">
         <v>242</v>
@@ -4749,7 +4755,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="90">
+    <row r="98" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="16">
         <v>84</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="16">
         <v>85</v>
       </c>
@@ -4774,7 +4780,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="16">
         <v>86</v>
       </c>
@@ -4785,7 +4791,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30">
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="16">
         <v>87</v>
       </c>
@@ -4797,7 +4803,7 @@
       </c>
       <c r="H101" s="2"/>
     </row>
-    <row r="102" spans="1:8" ht="60">
+    <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="16">
         <v>88</v>
       </c>
@@ -4811,82 +4817,82 @@
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="7:7">
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G113" s="16"/>
     </row>
-    <row r="114" spans="7:7">
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="7:7">
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="7:7">
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="7:7">
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" s="16"/>
     </row>
-    <row r="118" spans="7:7">
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="7:7">
+    <row r="119" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G119" s="16"/>
     </row>
-    <row r="120" spans="7:7">
+    <row r="120" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="7:7">
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G121" s="16"/>
     </row>
-    <row r="122" spans="7:7">
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="7:7">
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="7:7">
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="7:7">
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G125" s="16"/>
     </row>
-    <row r="126" spans="7:7">
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="7:7">
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G127" s="16"/>
     </row>
-    <row r="128" spans="7:7">
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G128" s="16"/>
     </row>
   </sheetData>
@@ -4910,15 +4916,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
@@ -4931,12 +4937,12 @@
     <col min="18" max="18" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="D1" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="24" customFormat="1">
+    <row r="2" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
         <v>248</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1">
+    <row r="3" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -4983,7 +4989,7 @@
       </c>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1">
+    <row r="4" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -5006,11 +5012,11 @@
         <v>71</v>
       </c>
       <c r="I4" s="15"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5035,7 +5041,7 @@
       <c r="I5" s="6"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5059,9 +5065,9 @@
       </c>
       <c r="I6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="R6" s="40"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="R6" s="41"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5084,9 +5090,9 @@
         <v>71</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="R7" s="40"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="R7" s="41"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5110,9 +5116,9 @@
       </c>
       <c r="I8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="R8" s="40"/>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1">
+      <c r="R8" s="41"/>
+    </row>
+    <row r="9" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -5135,9 +5141,9 @@
         <v>71</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="R9" s="40"/>
-    </row>
-    <row r="10" spans="1:18" s="13" customFormat="1">
+      <c r="R9" s="41"/>
+    </row>
+    <row r="10" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -5163,7 +5169,7 @@
       <c r="N10" s="15"/>
       <c r="R10" s="42"/>
     </row>
-    <row r="11" spans="1:18" s="13" customFormat="1">
+    <row r="11" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -5188,7 +5194,7 @@
       <c r="I11" s="15"/>
       <c r="R11" s="42"/>
     </row>
-    <row r="12" spans="1:18" s="13" customFormat="1">
+    <row r="12" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -5214,7 +5220,7 @@
       <c r="N12" s="15"/>
       <c r="R12" s="42"/>
     </row>
-    <row r="13" spans="1:18" s="13" customFormat="1">
+    <row r="13" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -5239,7 +5245,7 @@
       <c r="I13" s="15"/>
       <c r="R13" s="42"/>
     </row>
-    <row r="14" spans="1:18" s="13" customFormat="1">
+    <row r="14" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -5260,9 +5266,9 @@
       </c>
       <c r="I14" s="15"/>
       <c r="N14" s="15"/>
-      <c r="R14" s="40"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="R14" s="41"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5285,9 +5291,9 @@
         <v>71</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="R15" s="40"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="R15" s="41"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5311,9 +5317,9 @@
       </c>
       <c r="I16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="R16" s="40"/>
-    </row>
-    <row r="17" spans="1:18" s="13" customFormat="1">
+      <c r="R16" s="41"/>
+    </row>
+    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -5336,9 +5342,9 @@
         <v>71</v>
       </c>
       <c r="I17" s="15"/>
-      <c r="R17" s="40"/>
-    </row>
-    <row r="18" spans="1:18" s="13" customFormat="1">
+      <c r="R17" s="41"/>
+    </row>
+    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -5362,9 +5368,9 @@
       </c>
       <c r="I18" s="15"/>
       <c r="N18" s="15"/>
-      <c r="R18" s="40"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="R18" s="41"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5390,9 +5396,9 @@
       <c r="J19" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="R19" s="40"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="R19" s="41"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5421,7 +5427,7 @@
       <c r="N20" s="3"/>
       <c r="R20" s="35"/>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1">
+    <row r="21" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -5445,37 +5451,37 @@
       </c>
       <c r="I21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="R21" s="40"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22">
+      <c r="R21" s="41"/>
+    </row>
+    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D22" t="s">
-        <v>250</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F22" t="s">
-        <v>250</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H22" s="28" t="s">
+      <c r="F22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="28" t="s">
+      <c r="I22" s="12"/>
+      <c r="J22" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="R22" s="40"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="R22" s="41"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5502,63 +5508,63 @@
         <v>267</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="40"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24">
+      <c r="R23" s="41"/>
+    </row>
+    <row r="24" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D24" t="s">
-        <v>250</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F24" t="s">
-        <v>250</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H24" s="28" t="s">
+      <c r="F24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="28" t="s">
+      <c r="I24" s="12"/>
+      <c r="J24" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25">
+      <c r="R24" s="41"/>
+    </row>
+    <row r="25" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F25" t="s">
-        <v>250</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H25" s="28" t="s">
+      <c r="F25" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="N25" s="3"/>
-      <c r="R25" s="40"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="I25" s="43"/>
+      <c r="N25" s="15"/>
+      <c r="R25" s="41"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5581,35 +5587,35 @@
         <v>273</v>
       </c>
       <c r="I26" s="36"/>
-      <c r="R26" s="40"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27">
+      <c r="R26" s="41"/>
+    </row>
+    <row r="27" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D27" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F27" t="s">
-        <v>250</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H27" s="28" t="s">
+      <c r="F27" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H27" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="N27" s="3"/>
-      <c r="R27" s="40"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="I27" s="43"/>
+      <c r="N27" s="15"/>
+      <c r="R27" s="41"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5632,9 +5638,9 @@
         <v>266</v>
       </c>
       <c r="I28" s="36"/>
-      <c r="R28" s="40"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="R28" s="41"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5658,9 +5664,9 @@
       </c>
       <c r="I29" s="36"/>
       <c r="N29" s="3"/>
-      <c r="R29" s="40"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="R29" s="41"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5686,9 +5692,9 @@
         <v>265</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="R30" s="40"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="R30" s="41"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5715,66 +5721,66 @@
       </c>
       <c r="I31" s="36"/>
       <c r="N31" s="3"/>
-      <c r="R31" s="40"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32">
+      <c r="R31" s="41"/>
+    </row>
+    <row r="32" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D32" t="s">
-        <v>250</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F32" t="s">
-        <v>250</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H32" s="28" t="s">
+      <c r="F32" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I32" s="36"/>
-      <c r="R32" s="40"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33">
+      <c r="I32" s="43"/>
+      <c r="R32" s="41"/>
+    </row>
+    <row r="33" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F33" t="s">
-        <v>250</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" s="28" t="s">
+      <c r="F33" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="N33" s="3"/>
-      <c r="R33" s="40"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="I33" s="43"/>
+      <c r="N33" s="15"/>
+      <c r="R33" s="41"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5800,66 +5806,66 @@
         <v>266</v>
       </c>
       <c r="I34" s="36"/>
-      <c r="R34" s="40"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35">
+      <c r="R34" s="41"/>
+    </row>
+    <row r="35" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F35" t="s">
-        <v>250</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H35" s="28" t="s">
+      <c r="F35" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H35" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="N35" s="3"/>
-      <c r="R35" s="40"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36">
+      <c r="I35" s="43"/>
+      <c r="N35" s="15"/>
+      <c r="R35" s="42"/>
+    </row>
+    <row r="36" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D36" t="s">
-        <v>250</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F36" t="s">
-        <v>250</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H36" s="28" t="s">
+      <c r="F36" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="R36" s="40"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="I36" s="43"/>
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5886,298 +5892,317 @@
       </c>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38">
+    <row r="38" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F38" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H38" s="28" t="s">
+      <c r="F38" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I38" s="36"/>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="36"/>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40">
+      <c r="I38" s="43"/>
+    </row>
+    <row r="39" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="43"/>
+    </row>
+    <row r="40" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
         <v>37</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G40" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H40" s="28" t="s">
+      <c r="G40" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I40" s="36"/>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41">
+      <c r="I40" s="43"/>
+    </row>
+    <row r="41" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
         <v>38</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G41" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H41" s="28" t="s">
+      <c r="G41" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I41" s="36"/>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42">
+      <c r="I41" s="43"/>
+    </row>
+    <row r="42" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D42" t="s">
-        <v>250</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="D42" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G42" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H42" s="28" t="s">
+      <c r="G42" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I42" s="36"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43">
+      <c r="I42" s="43"/>
+    </row>
+    <row r="43" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F43" t="s">
-        <v>250</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H43" s="28" t="s">
+      <c r="F43" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I43" s="36"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="36"/>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="36"/>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="36"/>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47">
+      <c r="I43" s="43"/>
+    </row>
+    <row r="44" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="43"/>
+    </row>
+    <row r="45" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="43"/>
+    </row>
+    <row r="46" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="43"/>
+    </row>
+    <row r="47" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
         <v>41</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D47" t="s">
-        <v>250</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="D47" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F47" t="s">
-        <v>250</v>
-      </c>
-      <c r="G47" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H47" s="28" t="s">
+      <c r="F47" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H47" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I47" s="36"/>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48">
+      <c r="I47" s="43"/>
+    </row>
+    <row r="48" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
         <v>42</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G48" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H48" s="28" t="s">
+      <c r="G48" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H48" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I48" s="36"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="I48" s="43"/>
+    </row>
+    <row r="49" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>43</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D49" t="s">
-        <v>250</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F49" t="s">
-        <v>250</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H49" s="28" t="s">
+      <c r="F49" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H49" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I49" s="36"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
+      <c r="I49" s="43"/>
+    </row>
+    <row r="50" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
         <v>44</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D50" t="s">
-        <v>250</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F50" t="s">
-        <v>250</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H50" s="28" t="s">
+      <c r="F50" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H50" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I50" s="36"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
+      <c r="I50" s="43"/>
+    </row>
+    <row r="51" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
         <v>45</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D51" t="s">
-        <v>250</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="D51" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F51" t="s">
-        <v>250</v>
-      </c>
-      <c r="G51" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H51" s="28" t="s">
+      <c r="F51" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H51" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I51" s="36"/>
-    </row>
+      <c r="I51" s="43"/>
+    </row>
+    <row r="52" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="28">
+        <v>46</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A2:R38"/>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6188,17 +6213,12 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">
       <formula1>"Switched On, Switched Off, Connected, not connected"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G20 F21:G177 F3:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G20 F3:F20 F21:G177">
       <formula1>"ON, Off"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H218">

--- a/MMS/Test Cases/Monitor app/Performance tests-8may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-8may2015.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="320">
   <si>
     <t>time for upload</t>
   </si>
@@ -1627,10 +1627,10 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4914,8 +4914,8 @@
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5006,9 +5006,9 @@
         <v>71</v>
       </c>
       <c r="I4" s="15"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="I6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="R6" s="40"/>
+      <c r="R6" s="41"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
@@ -5084,7 +5084,7 @@
         <v>71</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="R7" s="40"/>
+      <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="I8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="R8" s="40"/>
+      <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:18" s="13" customFormat="1">
       <c r="A9" s="13">
@@ -5135,7 +5135,7 @@
         <v>71</v>
       </c>
       <c r="I9" s="15"/>
-      <c r="R9" s="40"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:18" s="13" customFormat="1">
       <c r="A10" s="13">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="I14" s="15"/>
       <c r="N14" s="15"/>
-      <c r="R14" s="40"/>
+      <c r="R14" s="41"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
@@ -5285,7 +5285,7 @@
         <v>71</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="R15" s="40"/>
+      <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
@@ -5311,7 +5311,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="R16" s="40"/>
+      <c r="R16" s="41"/>
     </row>
     <row r="17" spans="1:18" s="13" customFormat="1">
       <c r="A17" s="13">
@@ -5336,7 +5336,7 @@
         <v>71</v>
       </c>
       <c r="I17" s="15"/>
-      <c r="R17" s="40"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" s="13" customFormat="1">
       <c r="A18" s="13">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="I18" s="15"/>
       <c r="N18" s="15"/>
-      <c r="R18" s="40"/>
+      <c r="R18" s="41"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19">
@@ -5390,7 +5390,7 @@
       <c r="J19" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="R19" s="40"/>
+      <c r="R19" s="41"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="I21" s="15"/>
       <c r="N21" s="15"/>
-      <c r="R21" s="40"/>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
@@ -5473,7 +5473,7 @@
       <c r="J22" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="R22" s="40"/>
+      <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
@@ -5502,7 +5502,7 @@
         <v>267</v>
       </c>
       <c r="N23" s="3"/>
-      <c r="R23" s="40"/>
+      <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
@@ -5530,7 +5530,7 @@
       <c r="J24" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="R24" s="40"/>
+      <c r="R24" s="41"/>
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="I25" s="36"/>
       <c r="N25" s="3"/>
-      <c r="R25" s="40"/>
+      <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
@@ -5581,7 +5581,7 @@
         <v>273</v>
       </c>
       <c r="I26" s="36"/>
-      <c r="R26" s="40"/>
+      <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18">
       <c r="A27">
@@ -5607,7 +5607,7 @@
       </c>
       <c r="I27" s="36"/>
       <c r="N27" s="3"/>
-      <c r="R27" s="40"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
@@ -5632,7 +5632,7 @@
         <v>266</v>
       </c>
       <c r="I28" s="36"/>
-      <c r="R28" s="40"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="I29" s="36"/>
       <c r="N29" s="3"/>
-      <c r="R29" s="40"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:18">
       <c r="A30">
@@ -5686,7 +5686,7 @@
         <v>265</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="R30" s="40"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="I31" s="36"/>
       <c r="N31" s="3"/>
-      <c r="R31" s="40"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18">
       <c r="A32">
@@ -5743,7 +5743,7 @@
         <v>266</v>
       </c>
       <c r="I32" s="36"/>
-      <c r="R32" s="40"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18">
       <c r="A33">
@@ -5772,7 +5772,7 @@
       </c>
       <c r="I33" s="36"/>
       <c r="N33" s="3"/>
-      <c r="R33" s="40"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="1:18">
       <c r="A34">
@@ -5800,7 +5800,7 @@
         <v>266</v>
       </c>
       <c r="I34" s="36"/>
-      <c r="R34" s="40"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="I35" s="36"/>
       <c r="N35" s="3"/>
-      <c r="R35" s="40"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="1:18">
       <c r="A36">
@@ -5857,7 +5857,7 @@
         <v>266</v>
       </c>
       <c r="I36" s="36"/>
-      <c r="R36" s="40"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="1:18">
       <c r="A37">
@@ -6156,9 +6156,6 @@
       <c r="B51" t="s">
         <v>278</v>
       </c>
-      <c r="C51" t="s">
-        <v>275</v>
-      </c>
       <c r="D51" t="s">
         <v>250</v>
       </c>
@@ -6178,6 +6175,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="R14:R15"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="R31:R32"/>
@@ -6188,11 +6190,6 @@
     <mergeCell ref="R25:R26"/>
     <mergeCell ref="R27:R28"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">

--- a/MMS/Test Cases/Monitor app/Performance tests-8may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-8may2015.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="327">
   <si>
     <t>time for upload</t>
   </si>
@@ -1345,12 +1345,33 @@
   <si>
     <t>When we call the screens are not disturbed and uploading also not stopped.</t>
   </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>Pass(Upload time 2min)</t>
+  </si>
+  <si>
+    <t>Pass(upload time 2min 20sec)</t>
+  </si>
+  <si>
+    <t>Identifying the media taken 2min and uploading time upload 2 min 5 sec</t>
+  </si>
+  <si>
+    <t>pass(Observed that when uploading it goes to captured to expired to Uploaded)</t>
+  </si>
+  <si>
+    <t>Pass (upload time 2 min)</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1426,8 +1447,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1473,6 +1501,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1542,7 +1582,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1628,6 +1668,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4911,11 +4969,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4923,20 +4981,20 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.85546875" customWidth="1"/>
-    <col min="14" max="14" width="45.5703125" customWidth="1"/>
-    <col min="15" max="15" width="2.28515625" customWidth="1"/>
-    <col min="18" max="18" width="41" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.85546875" customWidth="1"/>
+    <col min="15" max="15" width="45.5703125" customWidth="1"/>
+    <col min="16" max="16" width="2.28515625" customWidth="1"/>
+    <col min="19" max="19" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30">
+    <row r="1" spans="1:19" ht="30">
       <c r="D1" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="24" customFormat="1">
+    <row r="2" spans="1:19" s="24" customFormat="1">
       <c r="B2" s="24" t="s">
         <v>248</v>
       </c>
@@ -4953,13 +5011,16 @@
         <v>259</v>
       </c>
       <c r="H2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1">
+    <row r="3" spans="1:19" s="13" customFormat="1">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -4981,9 +5042,9 @@
       <c r="G3" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:18" s="13" customFormat="1">
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:19" s="13" customFormat="1">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -5005,12 +5066,12 @@
       <c r="G4" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="P4" s="40"/>
+      <c r="J4" s="15"/>
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="40"/>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5032,10 +5093,11 @@
       <c r="G5" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="H5" s="28"/>
+      <c r="J5" s="6"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5057,11 +5119,12 @@
       <c r="G6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="R6" s="41"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="H6" s="28"/>
+      <c r="J6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="S6" s="49"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5083,10 +5146,11 @@
       <c r="G7" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="R7" s="41"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="H7" s="28"/>
+      <c r="J7" s="3"/>
+      <c r="S7" s="49"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5108,11 +5172,12 @@
       <c r="G8" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="R8" s="41"/>
-    </row>
-    <row r="9" spans="1:18" s="13" customFormat="1">
+      <c r="H8" s="28"/>
+      <c r="J8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="S8" s="49"/>
+    </row>
+    <row r="9" spans="1:19" s="13" customFormat="1">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -5134,10 +5199,10 @@
       <c r="G9" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="R9" s="41"/>
-    </row>
-    <row r="10" spans="1:18" s="13" customFormat="1">
+      <c r="J9" s="15"/>
+      <c r="S9" s="49"/>
+    </row>
+    <row r="10" spans="1:19" s="13" customFormat="1">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -5159,11 +5224,11 @@
       <c r="G10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="R10" s="42"/>
-    </row>
-    <row r="11" spans="1:18" s="13" customFormat="1">
+      <c r="J10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="S10" s="50"/>
+    </row>
+    <row r="11" spans="1:19" s="13" customFormat="1">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -5185,10 +5250,10 @@
       <c r="G11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="R11" s="42"/>
-    </row>
-    <row r="12" spans="1:18" s="13" customFormat="1">
+      <c r="J11" s="15"/>
+      <c r="S11" s="50"/>
+    </row>
+    <row r="12" spans="1:19" s="13" customFormat="1">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -5210,11 +5275,11 @@
       <c r="G12" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="R12" s="42"/>
-    </row>
-    <row r="13" spans="1:18" s="13" customFormat="1">
+      <c r="J12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="S12" s="50"/>
+    </row>
+    <row r="13" spans="1:19" s="13" customFormat="1">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -5236,10 +5301,10 @@
       <c r="G13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="R13" s="42"/>
-    </row>
-    <row r="14" spans="1:18" s="13" customFormat="1">
+      <c r="J13" s="15"/>
+      <c r="S13" s="50"/>
+    </row>
+    <row r="14" spans="1:19" s="13" customFormat="1">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -5258,11 +5323,11 @@
       <c r="G14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="R14" s="41"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="J14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="S14" s="49"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5284,10 +5349,11 @@
       <c r="G15" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="R15" s="41"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="H15" s="28"/>
+      <c r="J15" s="3"/>
+      <c r="S15" s="49"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5309,11 +5375,12 @@
       <c r="G16" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="R16" s="41"/>
-    </row>
-    <row r="17" spans="1:18" s="13" customFormat="1">
+      <c r="H16" s="28"/>
+      <c r="J16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="S16" s="49"/>
+    </row>
+    <row r="17" spans="1:19" s="13" customFormat="1">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -5335,10 +5402,10 @@
       <c r="G17" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="R17" s="41"/>
-    </row>
-    <row r="18" spans="1:18" s="13" customFormat="1">
+      <c r="J17" s="15"/>
+      <c r="S17" s="49"/>
+    </row>
+    <row r="18" spans="1:19" s="13" customFormat="1">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -5360,11 +5427,11 @@
       <c r="G18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="R18" s="41"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="J18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="S18" s="49"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5383,16 +5450,19 @@
       <c r="G19" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="28"/>
+      <c r="I19" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="K19" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="R19" s="41"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" s="49"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5411,17 +5481,20 @@
       <c r="G20" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="28"/>
+      <c r="I20" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="28" t="s">
+      <c r="J20" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="K20" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="R20" s="35"/>
-    </row>
-    <row r="21" spans="1:18" s="13" customFormat="1">
+      <c r="O20" s="3"/>
+      <c r="S20" s="35"/>
+    </row>
+    <row r="21" spans="1:19" s="13" customFormat="1">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -5440,42 +5513,42 @@
       <c r="G21" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="I21" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="R21" s="41"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22">
+      <c r="J21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="S21" s="49"/>
+    </row>
+    <row r="22" spans="1:19" s="13" customFormat="1">
+      <c r="A22" s="13">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D22" t="s">
-        <v>250</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F22" t="s">
-        <v>250</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H22" s="28" t="s">
+      <c r="F22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I22" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="28" t="s">
+      <c r="J22" s="12"/>
+      <c r="K22" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="R22" s="41"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" s="49"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5494,71 +5567,74 @@
       <c r="G23" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="H23" s="28"/>
+      <c r="I23" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="28" t="s">
+      <c r="J23" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="K23" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="R23" s="41"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24">
+      <c r="O23" s="3"/>
+      <c r="S23" s="49"/>
+    </row>
+    <row r="24" spans="1:19" s="13" customFormat="1">
+      <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D24" t="s">
-        <v>250</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F24" t="s">
-        <v>250</v>
-      </c>
-      <c r="G24" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H24" s="28" t="s">
+      <c r="F24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I24" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="28" t="s">
+      <c r="J24" s="12"/>
+      <c r="K24" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="R24" s="41"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25">
+      <c r="S24" s="49"/>
+    </row>
+    <row r="25" spans="1:19" s="13" customFormat="1">
+      <c r="A25" s="13">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F25" t="s">
-        <v>250</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H25" s="28" t="s">
+      <c r="F25" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="36"/>
-      <c r="N25" s="3"/>
-      <c r="R25" s="41"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="J25" s="43"/>
+      <c r="O25" s="15"/>
+      <c r="S25" s="49"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5577,64 +5653,67 @@
       <c r="G26" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="28"/>
+      <c r="I26" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="R26" s="41"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27">
+      <c r="J26" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="S26" s="49"/>
+    </row>
+    <row r="27" spans="1:19" s="13" customFormat="1">
+      <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D27" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F27" t="s">
-        <v>250</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H27" s="28" t="s">
+      <c r="F27" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I27" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="N27" s="3"/>
-      <c r="R27" s="41"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28">
+      <c r="J27" s="43"/>
+      <c r="O27" s="15"/>
+      <c r="S27" s="49"/>
+    </row>
+    <row r="28" spans="1:19" s="44" customFormat="1">
+      <c r="A28" s="44">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="D28" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="28" t="s">
+      <c r="G28" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="I28" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="R28" s="41"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="J28" s="45"/>
+      <c r="S28" s="49"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5653,42 +5732,45 @@
       <c r="G29" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="28"/>
+      <c r="I29" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="N29" s="3"/>
-      <c r="R29" s="41"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30">
+      <c r="J29" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="S29" s="49"/>
+    </row>
+    <row r="30" spans="1:19" s="44" customFormat="1">
+      <c r="A30" s="44">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="G30" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H30" s="28" t="s">
+      <c r="G30" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="I30" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="R30" s="41"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="J30" s="45"/>
+      <c r="S30" s="49"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5710,156 +5792,161 @@
       <c r="G31" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="28"/>
+      <c r="I31" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="I31" s="36"/>
-      <c r="N31" s="3"/>
-      <c r="R31" s="41"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32">
+      <c r="J31" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="S31" s="49"/>
+    </row>
+    <row r="32" spans="1:19" s="13" customFormat="1">
+      <c r="A32" s="13">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D32" t="s">
-        <v>250</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F32" t="s">
-        <v>250</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H32" s="28" t="s">
+      <c r="F32" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I32" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I32" s="36"/>
-      <c r="R32" s="41"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33">
+      <c r="J32" s="43"/>
+      <c r="S32" s="49"/>
+    </row>
+    <row r="33" spans="1:19" s="13" customFormat="1">
+      <c r="A33" s="13">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F33" t="s">
-        <v>250</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" s="28" t="s">
+      <c r="F33" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="N33" s="3"/>
-      <c r="R33" s="41"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34">
+      <c r="J33" s="43"/>
+      <c r="O33" s="15"/>
+      <c r="S33" s="49"/>
+    </row>
+    <row r="34" spans="1:19" s="46" customFormat="1">
+      <c r="A34" s="46">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="G34" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H34" s="28" t="s">
+      <c r="G34" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="I34" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="R34" s="41"/>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35">
+      <c r="J34" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="S34" s="49"/>
+    </row>
+    <row r="35" spans="1:19" s="13" customFormat="1">
+      <c r="A35" s="13">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F35" t="s">
-        <v>250</v>
-      </c>
-      <c r="G35" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H35" s="28" t="s">
+      <c r="F35" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="N35" s="3"/>
-      <c r="R35" s="41"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36">
+      <c r="J35" s="43"/>
+      <c r="O35" s="15"/>
+      <c r="S35" s="49"/>
+    </row>
+    <row r="36" spans="1:19" s="13" customFormat="1">
+      <c r="A36" s="13">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="D36" t="s">
-        <v>250</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F36" t="s">
-        <v>250</v>
-      </c>
-      <c r="G36" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H36" s="28" t="s">
+      <c r="F36" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I36" s="36"/>
-      <c r="R36" s="41"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="J36" s="43"/>
+      <c r="S36" s="49"/>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5881,44 +5968,48 @@
       <c r="G37" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="28"/>
+      <c r="I37" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="I37" s="36"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38">
+      <c r="J37" s="36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="13" customFormat="1">
+      <c r="A38" s="13">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F38" t="s">
-        <v>250</v>
-      </c>
-      <c r="G38" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H38" s="28" t="s">
+      <c r="F38" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I38" s="36"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="J38" s="43"/>
+    </row>
+    <row r="39" spans="1:19">
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="36"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="I39" s="28"/>
+      <c r="J39" s="36"/>
+    </row>
+    <row r="40" spans="1:19" ht="30">
       <c r="A40">
         <v>37</v>
       </c>
@@ -5940,12 +6031,15 @@
       <c r="G40" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="28"/>
+      <c r="I40" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="I40" s="36"/>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="J40" s="36" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="30">
       <c r="A41">
         <v>38</v>
       </c>
@@ -5967,12 +6061,15 @@
       <c r="G41" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="28"/>
+      <c r="I41" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I41" s="36"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="J41" s="36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42">
         <v>39</v>
       </c>
@@ -5994,54 +6091,60 @@
       <c r="G42" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H42" s="28" t="s">
+      <c r="H42" s="28"/>
+      <c r="I42" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="I42" s="36"/>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43">
+      <c r="J42" s="36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="13" customFormat="1">
+      <c r="A43" s="13">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F43" t="s">
-        <v>250</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H43" s="28" t="s">
+      <c r="F43" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I43" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="I43" s="36"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="J43" s="43"/>
+    </row>
+    <row r="44" spans="1:19">
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
-      <c r="I44" s="36"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="I44" s="28"/>
+      <c r="J44" s="36"/>
+    </row>
+    <row r="45" spans="1:19">
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
-      <c r="I45" s="36"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="I45" s="28"/>
+      <c r="J45" s="36"/>
+    </row>
+    <row r="46" spans="1:19">
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="36"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="I46" s="28"/>
+      <c r="J46" s="36"/>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47">
         <v>41</v>
       </c>
@@ -6063,12 +6166,15 @@
       <c r="G47" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H47" s="28" t="s">
+      <c r="H47" s="28"/>
+      <c r="I47" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="I47" s="36"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="J47" s="36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48">
         <v>42</v>
       </c>
@@ -6090,72 +6196,83 @@
       <c r="G48" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H48" s="28" t="s">
+      <c r="H48" s="28"/>
+      <c r="I48" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="I48" s="36"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>43</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="J48" s="36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="13" customFormat="1">
+      <c r="A49" s="13">
+        <v>43</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D49" t="s">
-        <v>250</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="D49" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F49" t="s">
-        <v>250</v>
-      </c>
-      <c r="G49" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H49" s="28" t="s">
+      <c r="F49" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="I49" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I49" s="36"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
+      <c r="J49" s="43"/>
+    </row>
+    <row r="50" spans="1:10" s="41" customFormat="1">
+      <c r="A50" s="41">
         <v>44</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="D50" t="s">
-        <v>250</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D50" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="F50" t="s">
-        <v>250</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="H50" s="28" t="s">
+      <c r="F50" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H50" t="s">
+        <v>249</v>
+      </c>
+      <c r="I50" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="I50" s="36"/>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" s="42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>45</v>
       </c>
       <c r="B51" t="s">
         <v>278</v>
       </c>
+      <c r="C51" t="s">
+        <v>260</v>
+      </c>
       <c r="D51" t="s">
         <v>250</v>
       </c>
@@ -6168,40 +6285,103 @@
       <c r="G51" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="H51" s="28" t="s">
+      <c r="H51" t="s">
+        <v>250</v>
+      </c>
+      <c r="I51" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="I51" s="36"/>
+      <c r="J51" s="36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>275</v>
+      </c>
+      <c r="D52" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" t="s">
+        <v>251</v>
+      </c>
+      <c r="F52" t="s">
+        <v>249</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D53" t="s">
+        <v>254</v>
+      </c>
+      <c r="E53" t="s">
+        <v>251</v>
+      </c>
+      <c r="F53" t="s">
+        <v>249</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>326</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="R35:R36"/>
-    <mergeCell ref="R21:R22"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="R27:R28"/>
-    <mergeCell ref="R29:R30"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="S16:S17"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="S35:S36"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S29:S30"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">
       <formula1>"Switched On, Switched Off, Connected, not connected"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G20 F21:G177 F3:F20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:H20 F21:H176 F3:F20">
       <formula1>"ON, Off"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H218">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I217">
       <formula1>"Assigned and linked, assigned and not linked, unassigned"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D98">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D97">
       <formula1>"On, Off"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Test Cases/Monitor app/Performance tests-8may2015.xlsx
+++ b/MMS/Test Cases/Monitor app/Performance tests-8may2015.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="345" windowWidth="14805" windowHeight="7770" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="v1.4 20th mar15" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
     <sheet name="20 mar15" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="11-5-2015" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'20 mar15'!$A$2:$I$102</definedName>
@@ -112,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="335">
   <si>
     <t>time for upload</t>
   </si>
@@ -1365,6 +1366,30 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>Without cache</t>
+  </si>
+  <si>
+    <t>Unable to connect server, please try again later message is displayed.</t>
+  </si>
+  <si>
+    <t>reverse try</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This monitor linked to id (should </t>
   </si>
 </sst>
 </file>
@@ -3254,7 +3279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:D6"/>
     </sheetView>
   </sheetViews>
@@ -3301,7 +3326,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3382,7 +3407,7 @@
       <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>199</v>
       </c>
       <c r="D5" s="30" t="s">
@@ -4971,9 +4996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6355,11 +6380,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="S14:S15"/>
     <mergeCell ref="S16:S17"/>
     <mergeCell ref="S18:S19"/>
     <mergeCell ref="S31:S32"/>
@@ -6370,6 +6390,11 @@
     <mergeCell ref="S25:S26"/>
     <mergeCell ref="S27:S28"/>
     <mergeCell ref="S29:S30"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="S12:S13"/>
+    <mergeCell ref="S14:S15"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E53">
@@ -6388,4 +6413,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="32.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" s="24" customFormat="1">
+      <c r="B2" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30">
+      <c r="A4" s="17">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>